--- a/Problem_2_data.xlsx
+++ b/Problem_2_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emildi/Dropbox (MIT)/1_Projects/1. PhD/Scientific assistantship/Final Project 2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gronergard/Documents/Power-Markets-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{0108DC76-F60C-964F-BF8B-76BF26296CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5E3CA89-DA16-47E4-BE37-30D47D67AB08}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51931198-3847-4A40-B2B5-9DCFA8617786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21240" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 2.2 - Base case" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,25 +471,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +509,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -523,7 +523,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -593,7 +593,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -628,7 +628,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -679,24 +679,24 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -730,7 +730,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -765,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -800,7 +800,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -835,7 +835,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -870,7 +870,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -923,23 +923,23 @@
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="9.140625"/>
+    <col min="6" max="10" width="9.1640625"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="15" width="9.1640625"/>
+    <col min="16" max="16" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -975,7 +975,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1199,22 +1199,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9840F038-FFE4-46D4-95DA-D10F47E3A31C}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="17" width="8.140625" customWidth="1"/>
-    <col min="18" max="21" width="16.7109375" customWidth="1"/>
+    <col min="1" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="10" width="8.1640625" customWidth="1"/>
+    <col min="11" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="17" width="8.1640625" customWidth="1"/>
+    <col min="18" max="21" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1252,7 +1252,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
